--- a/Feb 2020 to Mar 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Feb 2020 to Mar 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E372AB5-47AB-4D90-8862-9D1A0802D9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E6EA8F-ECBF-4E63-AF3E-2E84399FB4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,22 +205,22 @@
     <t>Epix East</t>
   </si>
   <si>
-    <t>Network added to Base Service in Mar 2020</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Service in Mar 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Service in Mar 2020</t>
-  </si>
-  <si>
-    <t>Network moved to new Add-On Service in Mar 2020</t>
-  </si>
-  <si>
-    <t>New Network Added to Database on Mar 2020</t>
-  </si>
-  <si>
-    <t>Existing Network Removed from Database in Mar 2020</t>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service in Mar 2020</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1126,7 +1126,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1140,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1182,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1196,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1210,7 +1210,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1224,7 +1224,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1238,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1252,7 +1252,7 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1266,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1280,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1370,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1384,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1544,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1558,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1572,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1586,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1600,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1614,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1628,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1656,7 +1656,7 @@
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1670,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1698,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1712,7 +1712,7 @@
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
